--- a/data/trans_media/IQ39A-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ39A-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,13; 40,14</t>
+          <t>33,34; 40,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,03; 39,72</t>
+          <t>31,93; 39,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,14; 44,01</t>
+          <t>34,53; 43,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,97; 43,97</t>
+          <t>36,59; 43,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,83; 41,22</t>
+          <t>33,67; 40,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,05; 38,24</t>
+          <t>23,07; 37,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,06; 41,16</t>
+          <t>36,06; 40,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,28; 39,63</t>
+          <t>33,78; 39,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,26; 40,79</t>
+          <t>32,23; 40,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,06; 40,85</t>
+          <t>38,93; 40,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,52; 39,2</t>
+          <t>36,22; 39,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,36; 38,93</t>
+          <t>36,33; 38,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,07; 40,14</t>
+          <t>25,2; 40,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,23; 41,43</t>
+          <t>39,21; 41,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,82; 38,2</t>
+          <t>35,73; 38,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,25; 38,63</t>
+          <t>36,41; 38,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,19; 37,79</t>
+          <t>27,17; 37,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,38; 40,88</t>
+          <t>39,4; 40,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,55; 38,37</t>
+          <t>36,5; 38,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,52; 38,42</t>
+          <t>36,57; 38,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,11; 38,16</t>
+          <t>27,51; 38,08</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,02; 38,55</t>
+          <t>36,14; 38,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,08; 39,74</t>
+          <t>37,02; 39,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,17; 38,62</t>
+          <t>36,15; 38,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,21; 38,83</t>
+          <t>36,25; 38,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,11; 39,83</t>
+          <t>37,09; 39,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,22; 38,21</t>
+          <t>35,34; 38,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,68; 38,45</t>
+          <t>36,68; 38,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,43; 39,37</t>
+          <t>37,35; 39,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,24; 38,1</t>
+          <t>36,2; 38,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,18; 39,69</t>
+          <t>38,07; 39,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,94; 38,86</t>
+          <t>36,96; 38,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,69; 38,55</t>
+          <t>36,77; 38,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 40,3</t>
+          <t>27,52; 40,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,63; 40,31</t>
+          <t>38,58; 40,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,67; 38,39</t>
+          <t>36,64; 38,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,1; 38,03</t>
+          <t>36,12; 38,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,83; 37,82</t>
+          <t>28,37; 38,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,63; 39,73</t>
+          <t>38,62; 39,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,12; 38,39</t>
+          <t>37,05; 38,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,71; 37,98</t>
+          <t>36,7; 37,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,46; 38,78</t>
+          <t>30,27; 38,51</t>
         </is>
       </c>
     </row>
